--- a/migforecasting/cities19-21/0/d6.xlsx
+++ b/migforecasting/cities19-21/0/d6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities19-21\0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="233">
   <si>
     <t>добыча полезных ископаемых</t>
   </si>
@@ -1503,6 +1503,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1538,24 +1556,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67:N67"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,53 +1874,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2">
         <v>2019</v>
       </c>
@@ -1950,18 +1950,18 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2266,18 +2266,18 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2365,29 +2365,29 @@
       <c r="G19" s="14">
         <v>926</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>66</v>
+      <c r="H19" s="14">
+        <v>500</v>
+      </c>
+      <c r="I19" s="14">
+        <v>2700</v>
+      </c>
+      <c r="J19" s="15">
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -3068,18 +3068,18 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="27"/>
     </row>
     <row r="46" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -3224,18 +3224,18 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="21"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="27"/>
     </row>
     <row r="52" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
@@ -3366,18 +3366,18 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="21"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="27"/>
     </row>
     <row r="57" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -3412,18 +3412,18 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="21"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="27"/>
     </row>
     <row r="59" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -3568,18 +3568,18 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="21"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="27"/>
     </row>
     <row r="65" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -3962,102 +3962,102 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="33"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="33"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="33"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="34" t="s">
+      <c r="A81" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="36"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="24"/>
     </row>
     <row r="82" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="33"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="1:10" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="33"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="33"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4069,13 +4069,6 @@
     <row r="92" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A82:J82"/>
-    <mergeCell ref="A83:J83"/>
-    <mergeCell ref="A84:J84"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="A80:J80"/>
-    <mergeCell ref="A81:J81"/>
     <mergeCell ref="A56:J56"/>
     <mergeCell ref="A58:J58"/>
     <mergeCell ref="A64:J64"/>
@@ -4090,6 +4083,13 @@
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A20:J20"/>
     <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A82:J82"/>
+    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="A84:J84"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="A80:J80"/>
+    <mergeCell ref="A81:J81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
